--- a/src/main/resources/USDM_CT.xlsx
+++ b/src/main/resources/USDM_CT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592D0FBE-928D-4C23-999B-434D81D83208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE8D5DB-D4D9-4468-93D4-C440E249A0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1210" yWindow="460" windowWidth="14620" windowHeight="9320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="17130" windowHeight="8140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDF Entities&amp;Attributes" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="1062">
   <si>
     <t>Preferred Term</t>
   </si>
@@ -1667,30 +1667,12 @@
     <t>encounterEnvironmentalSetting</t>
   </si>
   <si>
-    <t>previousEncounterId</t>
-  </si>
-  <si>
-    <t>nextEncounterId</t>
-  </si>
-  <si>
     <t>Intercurrent Event Strategy</t>
   </si>
   <si>
-    <t>Previous Epoch Identifier</t>
-  </si>
-  <si>
-    <t>Next Epoch Identifier</t>
-  </si>
-  <si>
     <t>studyElements</t>
   </si>
   <si>
-    <t>Previous Encounter Identifier</t>
-  </si>
-  <si>
-    <t>Next Encounter Identifier</t>
-  </si>
-  <si>
     <t>definedProcedures</t>
   </si>
   <si>
@@ -1997,18 +1979,6 @@
     <t>A textual description of the planned strategy to manage and/or mitigate intercurrent events.</t>
   </si>
   <si>
-    <t>A system identifier assigned to the epoch that occurs immediately prior to the current epoch.</t>
-  </si>
-  <si>
-    <t>A system identifier assigned to the epoch that occurs immediately after the current epoch.</t>
-  </si>
-  <si>
-    <t>A system identifier assigned to a clinical encounter that occurs immediately prior to the current clinical encounter.</t>
-  </si>
-  <si>
-    <t>A system identifier assigned to a clinical encounter that occurs immediately after the current clinical encounter.</t>
-  </si>
-  <si>
     <t>Clinical Study Sponsor</t>
   </si>
   <si>
@@ -2087,12 +2057,6 @@
     <t>C188830</t>
   </si>
   <si>
-    <t>C188831</t>
-  </si>
-  <si>
-    <t>C188832</t>
-  </si>
-  <si>
     <t>C188833</t>
   </si>
   <si>
@@ -2105,12 +2069,6 @@
     <t>C188836</t>
   </si>
   <si>
-    <t>C188837</t>
-  </si>
-  <si>
-    <t>C188838</t>
-  </si>
-  <si>
     <t>C188839</t>
   </si>
   <si>
@@ -2765,15 +2723,6 @@
     <t>Biomedical Concept Category Description</t>
   </si>
   <si>
-    <t>bcCategoryMemberIds</t>
-  </si>
-  <si>
-    <t>previousActivityId</t>
-  </si>
-  <si>
-    <t>nextActivityId</t>
-  </si>
-  <si>
     <t>biomedicalConcepts</t>
   </si>
   <si>
@@ -2930,12 +2879,6 @@
     <t>InvestigationalIntervention</t>
   </si>
   <si>
-    <t>previousStudyEpochId</t>
-  </si>
-  <si>
-    <t>nextStudyEpochId</t>
-  </si>
-  <si>
     <t>conditionAssignments</t>
   </si>
   <si>
@@ -3090,15 +3033,6 @@
   </si>
   <si>
     <t>A characterization or classification of the study objective that determines its category of importance relative to other study objectives.</t>
-  </si>
-  <si>
-    <t>studyEpochId</t>
-  </si>
-  <si>
-    <t>studyArmId</t>
-  </si>
-  <si>
-    <t>studyElementIds</t>
   </si>
   <si>
     <t>bcCategoryCode</t>
@@ -3147,9 +3081,6 @@
     <t>The latest chronological value of an allowable period of time during which a temporal event takes place.</t>
   </si>
   <si>
-    <t>defaultConditionId</t>
-  </si>
-  <si>
     <t>studyEpochs</t>
   </si>
   <si>
@@ -3168,9 +3099,6 @@
     <t>bcCategoryChildren</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -3268,6 +3196,36 @@
   </si>
   <si>
     <t>endpointPurposeDescription</t>
+  </si>
+  <si>
+    <t>studyArm</t>
+  </si>
+  <si>
+    <t>studyEpoch</t>
+  </si>
+  <si>
+    <t>previousStudyEpoch</t>
+  </si>
+  <si>
+    <t>nextStudyEpoch</t>
+  </si>
+  <si>
+    <t>previousEncounter</t>
+  </si>
+  <si>
+    <t>nextEncounter</t>
+  </si>
+  <si>
+    <t>bcCategoryMembers</t>
+  </si>
+  <si>
+    <t>defaultCondition</t>
+  </si>
+  <si>
+    <t>previousActivity</t>
+  </si>
+  <si>
+    <t>nextActivity</t>
   </si>
 </sst>
 </file>
@@ -4047,13 +4005,13 @@
         <v>92</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>109</v>
@@ -4076,13 +4034,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -4103,20 +4061,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -4124,20 +4082,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -4145,20 +4103,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4166,13 +4124,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
@@ -4195,16 +4153,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>523</v>
@@ -4222,13 +4180,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>33</v>
@@ -4243,7 +4201,7 @@
         <v>32</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="100" x14ac:dyDescent="0.35">
@@ -4251,13 +4209,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
@@ -4272,7 +4230,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4280,26 +4238,26 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="1" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -4307,23 +4265,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="G11" s="43"/>
       <c r="H11" s="43" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>90</v>
@@ -4334,23 +4292,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="G12" s="43"/>
       <c r="H12" s="43" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>90</v>
@@ -4361,13 +4319,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
@@ -4388,13 +4346,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="E14" s="43" t="s">
         <v>513</v>
@@ -4417,13 +4375,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="E15" s="43" t="s">
         <v>520</v>
@@ -4444,13 +4402,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E16" s="43" t="s">
         <v>521</v>
@@ -4471,13 +4429,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E17" s="43" t="s">
         <v>522</v>
@@ -4498,13 +4456,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>8</v>
@@ -4525,13 +4483,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>11</v>
@@ -4552,16 +4510,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>131</v>
@@ -4579,16 +4537,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>86</v>
@@ -4598,7 +4556,7 @@
         <v>122</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4606,13 +4564,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>87</v>
@@ -4633,20 +4591,20 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4654,13 +4612,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>87</v>
@@ -4711,17 +4669,17 @@
         <v>509</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
       <c r="H26" s="48"/>
       <c r="I26" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4735,13 +4693,13 @@
         <v>91</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
@@ -4762,7 +4720,7 @@
         <v>91</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>501</v>
@@ -4789,7 +4747,7 @@
         <v>91</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>504</v>
@@ -4816,10 +4774,10 @@
         <v>91</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>507</v>
@@ -4829,7 +4787,7 @@
         <v>508</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="50" x14ac:dyDescent="0.35">
@@ -4837,13 +4795,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>40</v>
@@ -4864,20 +4822,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="4"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -4885,20 +4843,20 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="4"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -4906,20 +4864,20 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="4"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -4927,10 +4885,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D35" s="42" t="s">
         <v>533</v>
@@ -4940,7 +4898,7 @@
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -4948,20 +4906,20 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="4"/>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -4969,10 +4927,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D37" s="42" t="s">
         <v>528</v>
@@ -4982,7 +4940,7 @@
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -4990,10 +4948,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D38" s="42" t="s">
         <v>537</v>
@@ -5003,7 +4961,7 @@
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -5011,20 +4969,20 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="E39" s="29"/>
       <c r="F39" s="4"/>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -5032,20 +4990,20 @@
         <v>39</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D40" s="56" t="s">
-        <v>914</v>
+        <v>897</v>
       </c>
       <c r="E40" s="57"/>
       <c r="F40" s="58"/>
       <c r="G40" s="59"/>
       <c r="H40" s="59"/>
       <c r="I40" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -5053,20 +5011,20 @@
         <v>40</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D41" s="56" t="s">
-        <v>1036</v>
+        <v>1013</v>
       </c>
       <c r="E41" s="57"/>
       <c r="F41" s="58"/>
       <c r="G41" s="59"/>
       <c r="H41" s="59"/>
       <c r="I41" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -5074,20 +5032,20 @@
         <v>41</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D42" s="56" t="s">
-        <v>1037</v>
+        <v>1014</v>
       </c>
       <c r="E42" s="57"/>
       <c r="F42" s="58"/>
       <c r="G42" s="59"/>
       <c r="H42" s="59"/>
       <c r="I42" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -5095,20 +5053,20 @@
         <v>42</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D43" s="56" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E43" s="57"/>
       <c r="F43" s="58"/>
       <c r="G43" s="59"/>
       <c r="H43" s="59"/>
       <c r="I43" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -5116,13 +5074,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
       <c r="E44" s="44" t="s">
         <v>43</v>
@@ -5137,7 +5095,7 @@
         <v>42</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -5145,13 +5103,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="E45" s="44" t="s">
         <v>37</v>
@@ -5166,7 +5124,7 @@
         <v>36</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -5174,13 +5132,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>45</v>
@@ -5193,7 +5151,7 @@
         <v>44</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="45" customFormat="1" ht="62.5" x14ac:dyDescent="0.35">
@@ -5201,28 +5159,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="H47" s="55" t="s">
-        <v>958</v>
+        <v>941</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -5230,23 +5188,23 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>1039</v>
+        <v>1016</v>
       </c>
       <c r="E48" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F48" s="43" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="G48" s="43"/>
       <c r="H48" s="43" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>90</v>
@@ -5257,23 +5215,23 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>1040</v>
+        <v>1017</v>
       </c>
       <c r="E49" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="G49" s="43"/>
       <c r="H49" s="43" t="s">
-        <v>1052</v>
+        <v>1028</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>90</v>
@@ -5284,23 +5242,23 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="E50" s="52" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="G50" s="43"/>
       <c r="H50" s="43" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>90</v>
@@ -5311,28 +5269,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="F51" s="43" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="G51" s="43" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="H51" s="43" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="I51" s="43" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.35">
@@ -5340,13 +5298,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>962</v>
+        <v>945</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>962</v>
+        <v>945</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>27</v>
@@ -5356,7 +5314,7 @@
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="43" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>90</v>
@@ -5367,26 +5325,26 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>962</v>
+        <v>945</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -5394,23 +5352,23 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>962</v>
+        <v>945</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>1040</v>
+        <v>1017</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>96</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>1073</v>
+        <v>1049</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4" t="s">
-        <v>1053</v>
+        <v>1029</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>90</v>
@@ -5421,23 +5379,23 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D55" s="41" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>1070</v>
+        <v>1046</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>1071</v>
+        <v>1047</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4" t="s">
-        <v>1072</v>
+        <v>1048</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>90</v>
@@ -5448,26 +5406,26 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.35">
@@ -5475,13 +5433,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>1040</v>
+        <v>1017</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>31</v>
@@ -5491,10 +5449,10 @@
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4" t="s">
-        <v>1069</v>
+        <v>1045</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -5502,13 +5460,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="41" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>29</v>
@@ -5518,7 +5476,7 @@
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>90</v>
@@ -5529,23 +5487,23 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>1040</v>
+        <v>1017</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4" t="s">
-        <v>1054</v>
+        <v>1030</v>
       </c>
       <c r="I59" s="43" t="s">
         <v>90</v>
@@ -5556,23 +5514,23 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="E60" s="52" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="F60" s="43" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="G60" s="43"/>
       <c r="H60" s="43" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="I60" s="43" t="s">
         <v>90</v>
@@ -5583,23 +5541,23 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="E61" s="52" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="G61" s="43"/>
       <c r="H61" s="43" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="I61" s="43" t="s">
         <v>90</v>
@@ -5610,23 +5568,23 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="E62" s="52" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="G62" s="43"/>
       <c r="H62" s="43" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="I62" s="43" t="s">
         <v>90</v>
@@ -5637,26 +5595,26 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="E63" s="52" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="F63" s="43" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="G63" s="43"/>
       <c r="H63" s="43" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="I63" s="43" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -5664,13 +5622,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="41" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>22</v>
@@ -5691,20 +5649,20 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -5712,13 +5670,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>1040</v>
+        <v>1017</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>115</v>
@@ -5728,7 +5686,7 @@
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4" t="s">
-        <v>1055</v>
+        <v>1031</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>90</v>
@@ -5739,26 +5697,26 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>132</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4" t="s">
-        <v>1016</v>
+        <v>997</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
@@ -5766,13 +5724,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D68" s="41" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>24</v>
@@ -5782,7 +5740,7 @@
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="43" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>90</v>
@@ -5793,23 +5751,23 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>1040</v>
+        <v>1017</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>125</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="4" t="s">
-        <v>1056</v>
+        <v>1032</v>
       </c>
       <c r="I69" s="43" t="s">
         <v>90</v>
@@ -5820,16 +5778,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>1075</v>
+        <v>1051</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>99</v>
@@ -5847,16 +5805,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>25</v>
@@ -5866,7 +5824,7 @@
         <v>487</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -5874,23 +5832,23 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="41" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>90</v>
@@ -5901,20 +5859,20 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D73" s="42" t="s">
-        <v>1018</v>
+        <v>1052</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -5922,20 +5880,20 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D74" s="42" t="s">
-        <v>1017</v>
+        <v>1053</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="3"/>
       <c r="I74" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -5943,20 +5901,20 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D75" s="42" t="s">
-        <v>1019</v>
+        <v>543</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="50" x14ac:dyDescent="0.35">
@@ -5964,13 +5922,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="41" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>52</v>
@@ -5991,13 +5949,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>1039</v>
+        <v>1016</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>119</v>
@@ -6018,13 +5976,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>1040</v>
+        <v>1017</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>118</v>
@@ -6034,7 +5992,7 @@
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4" t="s">
-        <v>1057</v>
+        <v>1033</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>90</v>
@@ -6045,26 +6003,26 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D79" s="31" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>1012</v>
+        <v>993</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4" t="s">
-        <v>1013</v>
+        <v>994</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>1014</v>
+        <v>995</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6072,16 +6030,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>1074</v>
+        <v>1050</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>128</v>
@@ -6099,16 +6057,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>129</v>
@@ -6118,7 +6076,7 @@
         <v>53</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -6126,13 +6084,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D82" s="41" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>61</v>
@@ -6153,13 +6111,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D83" s="31" t="s">
-        <v>1039</v>
+        <v>1016</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>63</v>
@@ -6180,23 +6138,23 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>1040</v>
+        <v>1017</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4" t="s">
-        <v>1058</v>
+        <v>1034</v>
       </c>
       <c r="I84" s="43" t="s">
         <v>90</v>
@@ -6207,7 +6165,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>91</v>
@@ -6216,7 +6174,7 @@
         <v>536</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>64</v>
@@ -6226,61 +6184,49 @@
         <v>65</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="33">
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D86" s="31" t="s">
-        <v>963</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>545</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="D86" s="42" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
       <c r="G86" s="4"/>
-      <c r="H86" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="I86" s="43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H86" s="4"/>
+      <c r="I86" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="33">
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" s="31" t="s">
-        <v>964</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>546</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="D87" s="42" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="I87" s="43" t="s">
-        <v>90</v>
+      <c r="H87" s="4"/>
+      <c r="I87" s="1" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="50" x14ac:dyDescent="0.35">
@@ -6288,13 +6234,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D88" s="41" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>48</v>
@@ -6315,10 +6261,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D89" s="42" t="s">
         <v>538</v>
@@ -6328,7 +6274,7 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -6336,10 +6282,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D90" s="42" t="s">
         <v>539</v>
@@ -6349,7 +6295,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6357,16 +6303,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>1039</v>
+        <v>1016</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>49</v>
@@ -6384,23 +6330,23 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>1040</v>
+        <v>1017</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>103</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4" t="s">
-        <v>1059</v>
+        <v>1035</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>90</v>
@@ -6411,13 +6357,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D93" s="41" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>77</v>
@@ -6438,23 +6384,23 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D94" s="31" t="s">
-        <v>1040</v>
+        <v>1017</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4" t="s">
-        <v>1060</v>
+        <v>1036</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>90</v>
@@ -6465,13 +6411,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D95" s="41" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>56</v>
@@ -6481,7 +6427,7 @@
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="3" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>90</v>
@@ -6492,10 +6438,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D96" s="42" t="s">
         <v>538</v>
@@ -6505,7 +6451,7 @@
       <c r="G96" s="4"/>
       <c r="H96" s="3"/>
       <c r="I96" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -6513,10 +6459,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D97" s="42" t="s">
         <v>539</v>
@@ -6526,7 +6472,7 @@
       <c r="G97" s="4"/>
       <c r="H97" s="3"/>
       <c r="I97" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -6534,20 +6480,20 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D98" s="63" t="s">
-        <v>1044</v>
+        <v>1020</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="3"/>
       <c r="I98" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6555,13 +6501,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>1042</v>
+        <v>1016</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>112</v>
@@ -6582,80 +6528,68 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>1043</v>
+        <v>1019</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>114</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4" t="s">
-        <v>1061</v>
+        <v>1037</v>
       </c>
       <c r="I100" s="43" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="33">
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D101" s="31" t="s">
-        <v>542</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>548</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="D101" s="42" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
       <c r="G101" s="4"/>
-      <c r="H101" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="I101" s="43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H101" s="4"/>
+      <c r="I101" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="33">
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D102" s="31" t="s">
-        <v>543</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>549</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="D102" s="42" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
       <c r="G102" s="4"/>
-      <c r="H102" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="I102" s="43" t="s">
-        <v>90</v>
+      <c r="H102" s="4"/>
+      <c r="I102" s="1" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -6663,7 +6597,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>91</v>
@@ -6672,7 +6606,7 @@
         <v>540</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>66</v>
@@ -6682,7 +6616,7 @@
         <v>67</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6690,7 +6624,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>91</v>
@@ -6699,7 +6633,7 @@
         <v>541</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>69</v>
@@ -6709,7 +6643,7 @@
         <v>70</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6717,16 +6651,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>71</v>
@@ -6736,7 +6670,7 @@
         <v>72</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -6744,13 +6678,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D106" s="41" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>84</v>
@@ -6771,20 +6705,20 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D107" s="42" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="3"/>
       <c r="I107" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
@@ -6792,20 +6726,20 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D108" s="47" t="s">
-        <v>911</v>
+        <v>894</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="3"/>
       <c r="I108" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
@@ -6813,20 +6747,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D109" s="47" t="s">
-        <v>912</v>
+        <v>895</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="3"/>
       <c r="I109" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
@@ -6834,20 +6768,20 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D110" s="47" t="s">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="3"/>
       <c r="I110" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
@@ -6855,20 +6789,20 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D111" s="47" t="s">
-        <v>909</v>
+        <v>1060</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="3"/>
       <c r="I111" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
@@ -6876,20 +6810,20 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D112" s="47" t="s">
-        <v>910</v>
+        <v>1061</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="3"/>
       <c r="I112" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -6897,20 +6831,20 @@
         <v>112</v>
       </c>
       <c r="B113" s="58" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C113" s="55" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D113" s="56" t="s">
-        <v>1038</v>
+        <v>1015</v>
       </c>
       <c r="E113" s="55"/>
       <c r="F113" s="58"/>
       <c r="G113" s="58"/>
       <c r="H113" s="60"/>
       <c r="I113" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6918,23 +6852,23 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>1039</v>
+        <v>1016</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="I114" s="4" t="s">
         <v>90</v>
@@ -6945,13 +6879,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>1040</v>
+        <v>1017</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>526</v>
@@ -6961,7 +6895,7 @@
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="3" t="s">
-        <v>1062</v>
+        <v>1038</v>
       </c>
       <c r="I115" s="4" t="s">
         <v>90</v>
@@ -6972,23 +6906,23 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="E116" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F116" s="43" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="G116" s="43"/>
       <c r="H116" s="43" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="I116" s="43" t="s">
         <v>90</v>
@@ -6999,23 +6933,23 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="E117" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F117" s="43" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="G117" s="43"/>
       <c r="H117" s="43" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="I117" s="43" t="s">
         <v>90</v>
@@ -7059,17 +6993,17 @@
         <v>91</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="I119" s="4" t="s">
         <v>90</v>
@@ -7086,7 +7020,7 @@
         <v>91</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>120</v>
@@ -7113,17 +7047,17 @@
         <v>91</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="E121" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F121" s="43" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="G121" s="43"/>
       <c r="H121" s="43" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="I121" s="43" t="s">
         <v>90</v>
@@ -7140,17 +7074,17 @@
         <v>91</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="E122" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F122" s="43" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="G122" s="43"/>
       <c r="H122" s="43" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="I122" s="43" t="s">
         <v>90</v>
@@ -7167,17 +7101,17 @@
         <v>91</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>1039</v>
+        <v>1016</v>
       </c>
       <c r="E123" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F123" s="43" t="s">
-        <v>982</v>
+        <v>963</v>
       </c>
       <c r="G123" s="61"/>
       <c r="H123" s="61" t="s">
-        <v>983</v>
+        <v>964</v>
       </c>
       <c r="I123" s="43" t="s">
         <v>90</v>
@@ -7194,17 +7128,17 @@
         <v>91</v>
       </c>
       <c r="D124" s="65" t="s">
-        <v>1040</v>
+        <v>1017</v>
       </c>
       <c r="E124" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F124" s="61" t="s">
-        <v>984</v>
+        <v>965</v>
       </c>
       <c r="G124" s="61"/>
       <c r="H124" s="61" t="s">
-        <v>1063</v>
+        <v>1039</v>
       </c>
       <c r="I124" s="43" t="s">
         <v>90</v>
@@ -7224,7 +7158,7 @@
         <v>78</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>78</v>
@@ -7245,7 +7179,7 @@
         <v>78</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D126" s="42" t="s">
         <v>529</v>
@@ -7255,7 +7189,7 @@
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="I126" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
@@ -7266,7 +7200,7 @@
         <v>78</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D127" s="42" t="s">
         <v>530</v>
@@ -7276,7 +7210,7 @@
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
       <c r="I127" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
@@ -7287,7 +7221,7 @@
         <v>78</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D128" s="42" t="s">
         <v>535</v>
@@ -7297,7 +7231,7 @@
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
@@ -7308,7 +7242,7 @@
         <v>78</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D129" s="42" t="s">
         <v>534</v>
@@ -7318,7 +7252,7 @@
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
       <c r="I129" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -7335,7 +7269,7 @@
         <v>532</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>80</v>
@@ -7353,16 +7287,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D131" s="41" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>82</v>
@@ -7380,23 +7314,23 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D132" s="31" t="s">
-        <v>1040</v>
+        <v>1017</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>127</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="4" t="s">
-        <v>1064</v>
+        <v>1040</v>
       </c>
       <c r="I132" s="43" t="s">
         <v>90</v>
@@ -7407,16 +7341,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D133" s="41" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>30</v>
@@ -7434,16 +7368,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D134" s="31" t="s">
-        <v>1039</v>
+        <v>1016</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>107</v>
@@ -7461,23 +7395,23 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D135" s="31" t="s">
-        <v>1040</v>
+        <v>1017</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>108</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="4" t="s">
-        <v>1065</v>
+        <v>1041</v>
       </c>
       <c r="I135" s="43" t="s">
         <v>90</v>
@@ -7488,7 +7422,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>91</v>
@@ -7497,14 +7431,14 @@
         <v>531</v>
       </c>
       <c r="E136" s="33" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G136" s="33"/>
       <c r="H136" s="4" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="I136" s="43" t="s">
         <v>90</v>
@@ -7515,23 +7449,23 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D137" s="41" t="s">
+        <v>605</v>
+      </c>
+      <c r="E137" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="E137" s="4" t="s">
-        <v>617</v>
-      </c>
       <c r="F137" s="4" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="G137" s="35"/>
       <c r="H137" s="4" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="I137" s="43" t="s">
         <v>90</v>
@@ -7542,23 +7476,23 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D138" s="31" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="G138" s="35"/>
       <c r="H138" s="4" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="I138" s="43" t="s">
         <v>90</v>
@@ -7569,23 +7503,23 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D139" s="31" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="G139" s="4"/>
       <c r="H139" s="4" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="I139" s="43" t="s">
         <v>90</v>
@@ -7596,23 +7530,23 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D140" s="31" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="4" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="I140" s="43" t="s">
         <v>90</v>
@@ -7623,23 +7557,23 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D141" s="31" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G141" s="35"/>
       <c r="H141" s="4" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="I141" s="43" t="s">
         <v>90</v>
@@ -7650,23 +7584,23 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D142" s="41" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="E142" s="33" t="s">
         <v>16</v>
       </c>
       <c r="F142" s="33" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="G142" s="33"/>
       <c r="H142" s="1" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="I142" s="33" t="s">
         <v>90</v>
@@ -7677,20 +7611,20 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D143" s="47" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="E143" s="33"/>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
       <c r="H143" s="33"/>
       <c r="I143" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
@@ -7698,20 +7632,20 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="C144" s="33" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D144" s="47" t="s">
-        <v>959</v>
+        <v>942</v>
       </c>
       <c r="E144" s="33"/>
       <c r="F144" s="33"/>
       <c r="G144" s="33"/>
       <c r="H144" s="33"/>
       <c r="I144" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="49" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -7719,23 +7653,23 @@
         <v>144</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D145" s="54" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="E145" s="52" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="F145" s="43" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="G145" s="43"/>
       <c r="H145" s="43" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="I145" s="33" t="s">
         <v>90</v>
@@ -7746,23 +7680,23 @@
         <v>145</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="C146" s="53" t="s">
         <v>91</v>
       </c>
       <c r="D146" s="30" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="E146" s="52" t="s">
         <v>16</v>
       </c>
       <c r="F146" s="43" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="G146" s="43"/>
       <c r="H146" s="43" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="I146" s="33" t="s">
         <v>90</v>
@@ -7773,23 +7707,23 @@
         <v>146</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="C147" s="53" t="s">
         <v>91</v>
       </c>
       <c r="D147" s="30" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="E147" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F147" s="43" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="G147" s="43"/>
       <c r="H147" s="43" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="I147" s="33" t="s">
         <v>90</v>
@@ -7800,23 +7734,23 @@
         <v>147</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="C148" s="53" t="s">
         <v>91</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="E148" s="52" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="F148" s="43" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="G148" s="43"/>
       <c r="H148" s="43" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="I148" s="33" t="s">
         <v>90</v>
@@ -7827,23 +7761,23 @@
         <v>148</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="C149" s="53" t="s">
         <v>91</v>
       </c>
       <c r="D149" s="30" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="E149" s="52" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="F149" s="43" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="G149" s="43"/>
       <c r="H149" s="43" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="I149" s="33" t="s">
         <v>90</v>
@@ -7854,23 +7788,23 @@
         <v>149</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="C150" s="53" t="s">
         <v>91</v>
       </c>
       <c r="D150" s="30" t="s">
+        <v>743</v>
+      </c>
+      <c r="E150" s="52" t="s">
+        <v>756</v>
+      </c>
+      <c r="F150" s="43" t="s">
         <v>757</v>
-      </c>
-      <c r="E150" s="52" t="s">
-        <v>770</v>
-      </c>
-      <c r="F150" s="43" t="s">
-        <v>771</v>
       </c>
       <c r="G150" s="43"/>
       <c r="H150" s="43" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="I150" s="33" t="s">
         <v>90</v>
@@ -7881,23 +7815,23 @@
         <v>150</v>
       </c>
       <c r="B151" s="33" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="C151" s="53" t="s">
         <v>91</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="E151" s="52" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="F151" s="43" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="G151" s="43"/>
       <c r="H151" s="43" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="I151" s="33" t="s">
         <v>90</v>
@@ -7908,26 +7842,26 @@
         <v>151</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="C152" s="53" t="s">
         <v>91</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="E152" s="52" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="F152" s="43" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="G152" s="43"/>
       <c r="H152" s="43" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
@@ -7935,23 +7869,23 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D153" s="41" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="E153" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F153" s="43" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="G153" s="43"/>
       <c r="H153" s="43" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="I153" s="43" t="s">
         <v>90</v>
@@ -7962,20 +7896,20 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="C154" s="33" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D154" s="47" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="E154" s="33"/>
       <c r="F154" s="33"/>
       <c r="G154" s="33"/>
       <c r="H154" s="33"/>
       <c r="I154" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -7983,23 +7917,23 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="C155" s="33" t="s">
         <v>91</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="E155" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F155" s="43" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="G155" s="43"/>
       <c r="H155" s="43" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="I155" s="43" t="s">
         <v>90</v>
@@ -8010,23 +7944,23 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="C156" s="33" t="s">
         <v>91</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="E156" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F156" s="43" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="G156" s="43"/>
       <c r="H156" s="43" t="s">
-        <v>960</v>
+        <v>943</v>
       </c>
       <c r="I156" s="43" t="s">
         <v>90</v>
@@ -8037,23 +7971,23 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="C157" s="33" t="s">
         <v>91</v>
       </c>
       <c r="D157" s="30" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="E157" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F157" s="43" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="G157" s="43"/>
       <c r="H157" s="43" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="I157" s="43" t="s">
         <v>90</v>
@@ -8064,23 +7998,23 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="C158" s="33" t="s">
         <v>91</v>
       </c>
       <c r="D158" s="30" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="E158" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F158" s="43" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="G158" s="43"/>
       <c r="H158" s="43" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="I158" s="43" t="s">
         <v>90</v>
@@ -8091,23 +8025,23 @@
         <v>158</v>
       </c>
       <c r="B159" s="33" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D159" s="41" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="E159" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F159" s="43" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="G159" s="43"/>
       <c r="H159" s="43" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="I159" s="43" t="s">
         <v>90</v>
@@ -8118,20 +8052,20 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D160" s="47" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="E160" s="33"/>
       <c r="F160" s="33"/>
       <c r="G160" s="33"/>
       <c r="H160" s="33"/>
       <c r="I160" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -8139,23 +8073,23 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="C161" s="33" t="s">
         <v>91</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="E161" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F161" s="43" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="G161" s="43"/>
       <c r="H161" s="43" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="I161" s="43" t="s">
         <v>90</v>
@@ -8166,23 +8100,23 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="C162" s="33" t="s">
         <v>91</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="E162" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F162" s="43" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="G162" s="43"/>
       <c r="H162" s="43" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="I162" s="43" t="s">
         <v>90</v>
@@ -8193,23 +8127,23 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="C163" s="33" t="s">
         <v>91</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="E163" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F163" s="43" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="G163" s="43"/>
       <c r="H163" s="43" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="I163" s="43" t="s">
         <v>90</v>
@@ -8220,23 +8154,23 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="C164" s="33" t="s">
         <v>91</v>
       </c>
       <c r="D164" s="30" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="E164" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F164" s="43" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="G164" s="43"/>
       <c r="H164" s="43" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I164" s="43" t="s">
         <v>90</v>
@@ -8247,23 +8181,23 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="C165" s="33" t="s">
         <v>91</v>
       </c>
       <c r="D165" s="30" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="E165" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F165" s="43" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="G165" s="43"/>
       <c r="H165" s="43" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="I165" s="43" t="s">
         <v>90</v>
@@ -8274,23 +8208,23 @@
         <v>165</v>
       </c>
       <c r="B166" s="33" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D166" s="41" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="E166" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F166" s="43" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="G166" s="43"/>
       <c r="H166" s="43" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="I166" s="43" t="s">
         <v>90</v>
@@ -8301,23 +8235,23 @@
         <v>166</v>
       </c>
       <c r="B167" s="33" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="C167" s="33" t="s">
         <v>91</v>
       </c>
       <c r="D167" s="30" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
       <c r="E167" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F167" s="43" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="G167" s="43"/>
       <c r="H167" s="43" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="I167" s="43" t="s">
         <v>90</v>
@@ -8328,23 +8262,23 @@
         <v>167</v>
       </c>
       <c r="B168" s="33" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="C168" s="33" t="s">
         <v>91</v>
       </c>
       <c r="D168" s="30" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="G168" s="33"/>
       <c r="H168" s="1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="I168" s="43" t="s">
         <v>90</v>
@@ -8355,13 +8289,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D169" s="41" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="E169" s="43"/>
       <c r="F169" s="43"/>
@@ -8376,23 +8310,23 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="C170" s="33" t="s">
         <v>91</v>
       </c>
       <c r="D170" s="30" t="s">
-        <v>1042</v>
+        <v>1016</v>
       </c>
       <c r="E170" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F170" s="43" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="G170" s="43"/>
       <c r="H170" s="43" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="I170" s="43" t="s">
         <v>90</v>
@@ -8403,23 +8337,23 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="C171" s="33" t="s">
         <v>91</v>
       </c>
       <c r="D171" s="30" t="s">
-        <v>1043</v>
+        <v>1019</v>
       </c>
       <c r="E171" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F171" s="43" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="G171" s="43"/>
       <c r="H171" s="43" t="s">
-        <v>1066</v>
+        <v>1042</v>
       </c>
       <c r="I171" s="43" t="s">
         <v>90</v>
@@ -8430,23 +8364,23 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="C172" s="33" t="s">
         <v>91</v>
       </c>
       <c r="D172" s="30" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="E172" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F172" s="43" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="G172" s="43"/>
       <c r="H172" s="43" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="I172" s="43" t="s">
         <v>90</v>
@@ -8457,23 +8391,23 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D173" s="41" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="E173" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F173" s="43" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
       <c r="G173" s="43"/>
       <c r="H173" s="43" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="I173" s="43" t="s">
         <v>90</v>
@@ -8484,20 +8418,20 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="C174" s="33" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D174" s="47" t="s">
-        <v>908</v>
+        <v>1058</v>
       </c>
       <c r="E174" s="33"/>
       <c r="F174" s="33"/>
       <c r="G174" s="33"/>
       <c r="H174" s="33"/>
       <c r="I174" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -8505,20 +8439,20 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="C175" s="33" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D175" s="47" t="s">
-        <v>1041</v>
+        <v>1018</v>
       </c>
       <c r="E175" s="33"/>
       <c r="F175" s="33"/>
       <c r="G175" s="33"/>
       <c r="H175" s="33"/>
       <c r="I175" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -8526,23 +8460,23 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="C176" s="33" t="s">
         <v>91</v>
       </c>
       <c r="D176" s="30" t="s">
-        <v>1042</v>
+        <v>1016</v>
       </c>
       <c r="E176" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F176" s="43" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="G176" s="43"/>
       <c r="H176" s="43" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="I176" s="43" t="s">
         <v>90</v>
@@ -8553,23 +8487,23 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="C177" s="33" t="s">
         <v>91</v>
       </c>
       <c r="D177" s="30" t="s">
-        <v>1043</v>
+        <v>1019</v>
       </c>
       <c r="E177" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F177" s="43" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="G177" s="43"/>
       <c r="H177" s="43" t="s">
-        <v>1067</v>
+        <v>1043</v>
       </c>
       <c r="I177" s="43" t="s">
         <v>90</v>
@@ -8580,23 +8514,23 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="C178" s="33" t="s">
         <v>91</v>
       </c>
       <c r="D178" s="30" t="s">
-        <v>1020</v>
+        <v>998</v>
       </c>
       <c r="E178" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F178" s="43" t="s">
-        <v>1021</v>
+        <v>999</v>
       </c>
       <c r="G178" s="43"/>
       <c r="H178" s="43" t="s">
-        <v>1022</v>
+        <v>1000</v>
       </c>
       <c r="I178" s="43" t="s">
         <v>90</v>
@@ -8607,23 +8541,23 @@
         <v>178</v>
       </c>
       <c r="B179" s="55" t="s">
-        <v>915</v>
+        <v>898</v>
       </c>
       <c r="C179" s="58" t="s">
         <v>4</v>
       </c>
       <c r="D179" s="54" t="s">
-        <v>915</v>
+        <v>898</v>
       </c>
       <c r="E179" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F179" s="55" t="s">
-        <v>929</v>
+        <v>912</v>
       </c>
       <c r="G179" s="62"/>
       <c r="H179" s="61" t="s">
-        <v>930</v>
+        <v>913</v>
       </c>
       <c r="I179" s="61" t="s">
         <v>90</v>
@@ -8634,20 +8568,20 @@
         <v>179</v>
       </c>
       <c r="B180" s="55" t="s">
-        <v>915</v>
+        <v>898</v>
       </c>
       <c r="C180" s="58" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D180" s="63" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="E180" s="61"/>
       <c r="F180" s="55"/>
       <c r="G180" s="62"/>
       <c r="H180" s="61"/>
       <c r="I180" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -8655,20 +8589,20 @@
         <v>180</v>
       </c>
       <c r="B181" s="55" t="s">
-        <v>915</v>
+        <v>898</v>
       </c>
       <c r="C181" s="58" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D181" s="63" t="s">
-        <v>1045</v>
+        <v>1021</v>
       </c>
       <c r="E181" s="61"/>
       <c r="F181" s="55"/>
       <c r="G181" s="62"/>
       <c r="H181" s="61"/>
       <c r="I181" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -8676,23 +8610,23 @@
         <v>181</v>
       </c>
       <c r="B182" s="55" t="s">
-        <v>916</v>
+        <v>899</v>
       </c>
       <c r="C182" s="58" t="s">
         <v>4</v>
       </c>
       <c r="D182" s="54" t="s">
-        <v>916</v>
+        <v>899</v>
       </c>
       <c r="E182" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F182" s="55" t="s">
-        <v>931</v>
+        <v>914</v>
       </c>
       <c r="G182" s="62"/>
       <c r="H182" s="61" t="s">
-        <v>932</v>
+        <v>915</v>
       </c>
       <c r="I182" s="61" t="s">
         <v>90</v>
@@ -8703,23 +8637,23 @@
         <v>182</v>
       </c>
       <c r="B183" s="55" t="s">
-        <v>916</v>
+        <v>899</v>
       </c>
       <c r="C183" s="58" t="s">
         <v>4</v>
       </c>
       <c r="D183" s="30" t="s">
-        <v>965</v>
+        <v>946</v>
       </c>
       <c r="E183" s="70" t="s">
         <v>16</v>
       </c>
       <c r="F183" s="43" t="s">
-        <v>966</v>
+        <v>947</v>
       </c>
       <c r="G183" s="70"/>
       <c r="H183" s="43" t="s">
-        <v>967</v>
+        <v>948</v>
       </c>
       <c r="I183" s="61" t="s">
         <v>90</v>
@@ -8730,23 +8664,23 @@
         <v>183</v>
       </c>
       <c r="B184" s="61" t="s">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="C184" s="58" t="s">
         <v>4</v>
       </c>
       <c r="D184" s="64" t="s">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="E184" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F184" s="55" t="s">
-        <v>933</v>
+        <v>916</v>
       </c>
       <c r="G184" s="62"/>
       <c r="H184" s="61" t="s">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="I184" s="61" t="s">
         <v>90</v>
@@ -8757,23 +8691,23 @@
         <v>184</v>
       </c>
       <c r="B185" s="61" t="s">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="C185" s="60" t="s">
         <v>91</v>
       </c>
       <c r="D185" s="65" t="s">
-        <v>921</v>
+        <v>904</v>
       </c>
       <c r="E185" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F185" s="55" t="s">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="G185" s="62"/>
       <c r="H185" s="61" t="s">
-        <v>936</v>
+        <v>919</v>
       </c>
       <c r="I185" s="61" t="s">
         <v>90</v>
@@ -8784,20 +8718,20 @@
         <v>185</v>
       </c>
       <c r="B186" s="61" t="s">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="C186" s="58" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D186" s="56" t="s">
-        <v>1048</v>
+        <v>1024</v>
       </c>
       <c r="E186" s="61"/>
       <c r="F186" s="62"/>
       <c r="G186" s="62"/>
       <c r="H186" s="62"/>
       <c r="I186" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -8805,20 +8739,20 @@
         <v>186</v>
       </c>
       <c r="B187" s="61" t="s">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="C187" s="58" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D187" s="56" t="s">
-        <v>1047</v>
+        <v>1023</v>
       </c>
       <c r="E187" s="61"/>
       <c r="F187" s="62"/>
       <c r="G187" s="62"/>
       <c r="H187" s="62"/>
       <c r="I187" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -8826,20 +8760,20 @@
         <v>187</v>
       </c>
       <c r="B188" s="61" t="s">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="C188" s="58" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D188" s="56" t="s">
-        <v>1035</v>
+        <v>1059</v>
       </c>
       <c r="E188" s="61"/>
       <c r="F188" s="62"/>
       <c r="G188" s="62"/>
       <c r="H188" s="62"/>
       <c r="I188" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -8847,20 +8781,20 @@
         <v>188</v>
       </c>
       <c r="B189" s="61" t="s">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="C189" s="58" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D189" s="56" t="s">
-        <v>1046</v>
+        <v>1022</v>
       </c>
       <c r="E189" s="61"/>
       <c r="F189" s="62"/>
       <c r="G189" s="62"/>
       <c r="H189" s="62"/>
       <c r="I189" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.35">
@@ -8868,23 +8802,23 @@
         <v>189</v>
       </c>
       <c r="B190" s="55" t="s">
-        <v>918</v>
+        <v>901</v>
       </c>
       <c r="C190" s="58" t="s">
         <v>4</v>
       </c>
       <c r="D190" s="54" t="s">
-        <v>918</v>
+        <v>901</v>
       </c>
       <c r="E190" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F190" s="61" t="s">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="G190" s="61"/>
       <c r="H190" s="61" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="I190" s="61" t="s">
         <v>90</v>
@@ -8895,23 +8829,23 @@
         <v>190</v>
       </c>
       <c r="B191" s="55" t="s">
-        <v>918</v>
+        <v>901</v>
       </c>
       <c r="C191" s="60" t="s">
         <v>91</v>
       </c>
       <c r="D191" s="66" t="s">
-        <v>1039</v>
+        <v>1016</v>
       </c>
       <c r="E191" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F191" s="55" t="s">
-        <v>939</v>
+        <v>922</v>
       </c>
       <c r="G191" s="61"/>
       <c r="H191" s="61" t="s">
-        <v>940</v>
+        <v>923</v>
       </c>
       <c r="I191" s="61" t="s">
         <v>90</v>
@@ -8922,23 +8856,23 @@
         <v>191</v>
       </c>
       <c r="B192" s="55" t="s">
-        <v>918</v>
+        <v>901</v>
       </c>
       <c r="C192" s="60" t="s">
         <v>91</v>
       </c>
       <c r="D192" s="66" t="s">
-        <v>1040</v>
+        <v>1017</v>
       </c>
       <c r="E192" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F192" s="55" t="s">
-        <v>941</v>
+        <v>924</v>
       </c>
       <c r="G192" s="61"/>
       <c r="H192" s="61" t="s">
-        <v>1068</v>
+        <v>1044</v>
       </c>
       <c r="I192" s="61" t="s">
         <v>90</v>
@@ -8949,23 +8883,23 @@
         <v>192</v>
       </c>
       <c r="B193" s="55" t="s">
-        <v>918</v>
+        <v>901</v>
       </c>
       <c r="C193" s="60" t="s">
         <v>91</v>
       </c>
       <c r="D193" s="66" t="s">
-        <v>922</v>
+        <v>905</v>
       </c>
       <c r="E193" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F193" s="55" t="s">
-        <v>942</v>
+        <v>925</v>
       </c>
       <c r="G193" s="61"/>
       <c r="H193" s="61" t="s">
-        <v>943</v>
+        <v>926</v>
       </c>
       <c r="I193" s="61" t="s">
         <v>90</v>
@@ -8976,23 +8910,23 @@
         <v>193</v>
       </c>
       <c r="B194" s="55" t="s">
-        <v>918</v>
+        <v>901</v>
       </c>
       <c r="C194" s="60" t="s">
         <v>91</v>
       </c>
       <c r="D194" s="66" t="s">
-        <v>1023</v>
+        <v>1001</v>
       </c>
       <c r="E194" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F194" s="61" t="s">
-        <v>1024</v>
+        <v>1002</v>
       </c>
       <c r="G194" s="61"/>
       <c r="H194" s="43" t="s">
-        <v>1025</v>
+        <v>1003</v>
       </c>
       <c r="I194" s="61" t="s">
         <v>90</v>
@@ -9003,20 +8937,20 @@
         <v>194</v>
       </c>
       <c r="B195" s="55" t="s">
-        <v>918</v>
+        <v>901</v>
       </c>
       <c r="C195" s="58" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D195" s="63" t="s">
-        <v>923</v>
+        <v>906</v>
       </c>
       <c r="E195" s="61"/>
       <c r="F195" s="55"/>
       <c r="G195" s="62"/>
       <c r="H195" s="61"/>
       <c r="I195" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -9024,20 +8958,20 @@
         <v>195</v>
       </c>
       <c r="B196" s="55" t="s">
-        <v>918</v>
+        <v>901</v>
       </c>
       <c r="C196" s="58" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D196" s="63" t="s">
-        <v>1049</v>
+        <v>1025</v>
       </c>
       <c r="E196" s="61"/>
       <c r="F196" s="62"/>
       <c r="G196" s="62"/>
       <c r="H196" s="62"/>
       <c r="I196" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -9045,20 +8979,20 @@
         <v>196</v>
       </c>
       <c r="B197" s="55" t="s">
-        <v>918</v>
+        <v>901</v>
       </c>
       <c r="C197" s="58" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D197" s="63" t="s">
-        <v>924</v>
+        <v>907</v>
       </c>
       <c r="E197" s="61"/>
       <c r="F197" s="62"/>
       <c r="G197" s="62"/>
       <c r="H197" s="62"/>
       <c r="I197" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -9066,23 +9000,23 @@
         <v>197</v>
       </c>
       <c r="B198" s="55" t="s">
-        <v>919</v>
+        <v>902</v>
       </c>
       <c r="C198" s="58" t="s">
         <v>4</v>
       </c>
       <c r="D198" s="54" t="s">
-        <v>919</v>
+        <v>902</v>
       </c>
       <c r="E198" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F198" s="55" t="s">
-        <v>944</v>
+        <v>927</v>
       </c>
       <c r="G198" s="62"/>
       <c r="H198" s="61" t="s">
-        <v>961</v>
+        <v>944</v>
       </c>
       <c r="I198" s="61" t="s">
         <v>90</v>
@@ -9093,23 +9027,23 @@
         <v>198</v>
       </c>
       <c r="B199" s="55" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="C199" s="58" t="s">
         <v>4</v>
       </c>
       <c r="D199" s="54" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="E199" s="61" t="s">
-        <v>945</v>
+        <v>928</v>
       </c>
       <c r="F199" s="61" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="G199" s="62"/>
       <c r="H199" s="61" t="s">
-        <v>946</v>
+        <v>929</v>
       </c>
       <c r="I199" s="61" t="s">
         <v>90</v>
@@ -9120,26 +9054,26 @@
         <v>199</v>
       </c>
       <c r="B200" s="55" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="C200" s="60" t="s">
         <v>91</v>
       </c>
       <c r="D200" s="66" t="s">
-        <v>925</v>
+        <v>908</v>
       </c>
       <c r="E200" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F200" s="55" t="s">
-        <v>947</v>
+        <v>930</v>
       </c>
       <c r="G200" s="62"/>
       <c r="H200" s="61" t="s">
-        <v>948</v>
+        <v>931</v>
       </c>
       <c r="I200" s="43" t="s">
-        <v>956</v>
+        <v>939</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -9147,23 +9081,23 @@
         <v>200</v>
       </c>
       <c r="B201" s="55" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="C201" s="60" t="s">
         <v>91</v>
       </c>
       <c r="D201" s="66" t="s">
-        <v>926</v>
+        <v>909</v>
       </c>
       <c r="E201" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F201" s="55" t="s">
-        <v>949</v>
+        <v>932</v>
       </c>
       <c r="G201" s="62"/>
       <c r="H201" s="61" t="s">
-        <v>950</v>
+        <v>933</v>
       </c>
       <c r="I201" s="61" t="s">
         <v>90</v>
@@ -9174,26 +9108,26 @@
         <v>201</v>
       </c>
       <c r="B202" s="55" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="C202" s="60" t="s">
         <v>91</v>
       </c>
       <c r="D202" s="66" t="s">
-        <v>927</v>
+        <v>910</v>
       </c>
       <c r="E202" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F202" s="55" t="s">
-        <v>951</v>
+        <v>934</v>
       </c>
       <c r="G202" s="62"/>
       <c r="H202" s="61" t="s">
-        <v>952</v>
+        <v>935</v>
       </c>
       <c r="I202" s="43" t="s">
-        <v>956</v>
+        <v>939</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -9201,23 +9135,23 @@
         <v>202</v>
       </c>
       <c r="B203" s="55" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="C203" s="60" t="s">
         <v>91</v>
       </c>
       <c r="D203" s="66" t="s">
-        <v>928</v>
+        <v>911</v>
       </c>
       <c r="E203" s="61" t="s">
-        <v>953</v>
+        <v>936</v>
       </c>
       <c r="F203" s="55" t="s">
-        <v>954</v>
+        <v>937</v>
       </c>
       <c r="G203" s="62"/>
       <c r="H203" s="61" t="s">
-        <v>955</v>
+        <v>938</v>
       </c>
       <c r="I203" s="61" t="s">
         <v>90</v>
@@ -9228,23 +9162,23 @@
         <v>203</v>
       </c>
       <c r="B204" s="55" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="C204" s="60" t="s">
         <v>91</v>
       </c>
       <c r="D204" s="66" t="s">
-        <v>1026</v>
+        <v>1004</v>
       </c>
       <c r="E204" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F204" s="43" t="s">
-        <v>1029</v>
+        <v>1007</v>
       </c>
       <c r="G204" s="61"/>
       <c r="H204" s="43" t="s">
-        <v>1030</v>
+        <v>1008</v>
       </c>
       <c r="I204" s="61" t="s">
         <v>90</v>
@@ -9255,23 +9189,23 @@
         <v>204</v>
       </c>
       <c r="B205" s="55" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="C205" s="60" t="s">
         <v>91</v>
       </c>
       <c r="D205" s="66" t="s">
-        <v>1027</v>
+        <v>1005</v>
       </c>
       <c r="E205" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F205" s="43" t="s">
-        <v>1031</v>
+        <v>1009</v>
       </c>
       <c r="G205" s="61"/>
       <c r="H205" s="43" t="s">
-        <v>1032</v>
+        <v>1010</v>
       </c>
       <c r="I205" s="61" t="s">
         <v>90</v>
@@ -9282,23 +9216,23 @@
         <v>205</v>
       </c>
       <c r="B206" s="55" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="C206" s="60" t="s">
         <v>91</v>
       </c>
       <c r="D206" s="66" t="s">
-        <v>1028</v>
+        <v>1006</v>
       </c>
       <c r="E206" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F206" s="43" t="s">
-        <v>1033</v>
+        <v>1011</v>
       </c>
       <c r="G206" s="61"/>
       <c r="H206" s="43" t="s">
-        <v>1034</v>
+        <v>1012</v>
       </c>
       <c r="I206" s="61" t="s">
         <v>90</v>
@@ -9309,20 +9243,20 @@
         <v>206</v>
       </c>
       <c r="B207" s="55" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="C207" s="58" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D207" s="63" t="s">
-        <v>1050</v>
+        <v>1026</v>
       </c>
       <c r="E207" s="62"/>
       <c r="F207" s="62"/>
       <c r="G207" s="62"/>
       <c r="H207" s="62"/>
       <c r="I207" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -9330,20 +9264,20 @@
         <v>207</v>
       </c>
       <c r="B208" s="55" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="C208" s="58" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D208" s="63" t="s">
-        <v>1051</v>
+        <v>1027</v>
       </c>
       <c r="E208" s="62"/>
       <c r="F208" s="62"/>
       <c r="G208" s="62"/>
       <c r="H208" s="62"/>
       <c r="I208" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -9463,10 +9397,10 @@
         <v>91</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>0</v>
@@ -9483,13 +9417,13 @@
         <v>137</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>158</v>
@@ -9507,13 +9441,13 @@
         <v>137</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>159</v>
@@ -9531,13 +9465,13 @@
         <v>137</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>160</v>
@@ -9555,13 +9489,13 @@
         <v>137</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>161</v>
@@ -9579,13 +9513,13 @@
         <v>137</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>205</v>
@@ -9605,13 +9539,13 @@
         <v>137</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>206</v>
@@ -9631,13 +9565,13 @@
         <v>137</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>207</v>
@@ -9657,13 +9591,13 @@
         <v>137</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>208</v>
@@ -9683,13 +9617,13 @@
         <v>137</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>209</v>
@@ -9709,13 +9643,13 @@
         <v>137</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>210</v>
@@ -9735,13 +9669,13 @@
         <v>137</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>211</v>
@@ -9761,13 +9695,13 @@
         <v>137</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>212</v>
@@ -9787,13 +9721,13 @@
         <v>137</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>213</v>
@@ -9813,13 +9747,13 @@
         <v>137</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>214</v>
@@ -9839,13 +9773,13 @@
         <v>137</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>215</v>
@@ -9865,13 +9799,13 @@
         <v>137</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>216</v>
@@ -9891,13 +9825,13 @@
         <v>137</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>217</v>
@@ -9917,13 +9851,13 @@
         <v>137</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>150</v>
@@ -9941,16 +9875,16 @@
         <v>137</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>141</v>
@@ -9967,13 +9901,13 @@
         <v>137</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>151</v>
@@ -9991,13 +9925,13 @@
         <v>137</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>152</v>
@@ -10015,13 +9949,13 @@
         <v>137</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>153</v>
@@ -10042,22 +9976,22 @@
         <v>509</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="F29" s="51" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -10068,20 +10002,20 @@
         <v>509</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="14" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
@@ -10092,22 +10026,22 @@
         <v>509</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -10115,13 +10049,13 @@
         <v>137</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>388</v>
@@ -10141,13 +10075,13 @@
         <v>137</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>389</v>
@@ -10165,13 +10099,13 @@
         <v>137</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>390</v>
@@ -10189,13 +10123,13 @@
         <v>137</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>391</v>
@@ -10213,13 +10147,13 @@
         <v>137</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>392</v>
@@ -10237,13 +10171,13 @@
         <v>137</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>393</v>
@@ -10261,13 +10195,13 @@
         <v>137</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>394</v>
@@ -10285,13 +10219,13 @@
         <v>137</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>395</v>
@@ -10311,13 +10245,13 @@
         <v>137</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>396</v>
@@ -10335,13 +10269,13 @@
         <v>137</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>397</v>
@@ -10359,13 +10293,13 @@
         <v>137</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>398</v>
@@ -10385,13 +10319,13 @@
         <v>137</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>455</v>
@@ -10409,13 +10343,13 @@
         <v>137</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>456</v>
@@ -10433,13 +10367,13 @@
         <v>137</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>457</v>
@@ -10457,13 +10391,13 @@
         <v>137</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>458</v>
@@ -10481,13 +10415,13 @@
         <v>137</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>459</v>
@@ -10505,13 +10439,13 @@
         <v>137</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>460</v>
@@ -10529,13 +10463,13 @@
         <v>137</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>391</v>
@@ -10553,13 +10487,13 @@
         <v>137</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>461</v>
@@ -10577,13 +10511,13 @@
         <v>137</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>462</v>
@@ -10601,13 +10535,13 @@
         <v>137</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>463</v>
@@ -10625,13 +10559,13 @@
         <v>137</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>464</v>
@@ -10649,13 +10583,13 @@
         <v>137</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>465</v>
@@ -10675,13 +10609,13 @@
         <v>137</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>466</v>
@@ -10699,13 +10633,13 @@
         <v>137</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>467</v>
@@ -10723,13 +10657,13 @@
         <v>137</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>468</v>
@@ -10747,13 +10681,13 @@
         <v>137</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>469</v>
@@ -10771,13 +10705,13 @@
         <v>137</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>470</v>
@@ -10795,13 +10729,13 @@
         <v>137</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>471</v>
@@ -10819,13 +10753,13 @@
         <v>137</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>472</v>
@@ -10843,13 +10777,13 @@
         <v>137</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>473</v>
@@ -10867,13 +10801,13 @@
         <v>137</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>474</v>
@@ -10891,13 +10825,13 @@
         <v>137</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>395</v>
@@ -10917,13 +10851,13 @@
         <v>137</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>475</v>
@@ -10941,13 +10875,13 @@
         <v>137</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>476</v>
@@ -10965,13 +10899,13 @@
         <v>137</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>477</v>
@@ -10989,13 +10923,13 @@
         <v>137</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>478</v>
@@ -11015,13 +10949,13 @@
         <v>137</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>479</v>
@@ -11039,13 +10973,13 @@
         <v>137</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>398</v>
@@ -11065,13 +10999,13 @@
         <v>137</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>480</v>
@@ -11089,13 +11023,13 @@
         <v>137</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>481</v>
@@ -11113,13 +11047,13 @@
         <v>137</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>228</v>
@@ -11137,13 +11071,13 @@
         <v>137</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>229</v>
@@ -11161,13 +11095,13 @@
         <v>137</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>230</v>
@@ -11185,13 +11119,13 @@
         <v>137</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>231</v>
@@ -11209,13 +11143,13 @@
         <v>137</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>232</v>
@@ -11233,13 +11167,13 @@
         <v>137</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>482</v>
@@ -11251,7 +11185,7 @@
         <v>497</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>1010</v>
+        <v>991</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -11259,13 +11193,13 @@
         <v>137</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="E79" s="15" t="s">
         <v>494</v>
@@ -11277,7 +11211,7 @@
         <v>498</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>1011</v>
+        <v>992</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -11285,13 +11219,13 @@
         <v>137</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>239</v>
@@ -11309,13 +11243,13 @@
         <v>137</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>240</v>
@@ -11333,13 +11267,13 @@
         <v>137</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>241</v>
@@ -11357,16 +11291,16 @@
         <v>137</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="F83" s="19" t="s">
         <v>242</v>
@@ -11381,13 +11315,13 @@
         <v>137</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>251</v>
@@ -11405,13 +11339,13 @@
         <v>137</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>252</v>
@@ -11429,16 +11363,16 @@
         <v>137</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="F86" s="19" t="s">
         <v>247</v>
@@ -11453,16 +11387,16 @@
         <v>137</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="F87" s="19" t="s">
         <v>249</v>
@@ -11477,13 +11411,13 @@
         <v>137</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>536</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>277</v>
@@ -11501,13 +11435,13 @@
         <v>137</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C89" s="19" t="s">
         <v>536</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>278</v>
@@ -11525,13 +11459,13 @@
         <v>137</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C90" s="19" t="s">
         <v>536</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>279</v>
@@ -11551,13 +11485,13 @@
         <v>137</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>536</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>280</v>
@@ -11575,13 +11509,13 @@
         <v>137</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>536</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>281</v>
@@ -11601,13 +11535,13 @@
         <v>137</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C93" s="19" t="s">
         <v>536</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E93" s="19" t="s">
         <v>282</v>
@@ -11625,13 +11559,13 @@
         <v>137</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>536</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>283</v>
@@ -11649,13 +11583,13 @@
         <v>137</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C95" s="19" t="s">
         <v>536</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>284</v>
@@ -11673,13 +11607,13 @@
         <v>137</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C96" s="19" t="s">
         <v>536</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>285</v>
@@ -11697,13 +11631,13 @@
         <v>137</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C97" s="19" t="s">
         <v>536</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>286</v>
@@ -11721,13 +11655,13 @@
         <v>137</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C98" s="19" t="s">
         <v>536</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>287</v>
@@ -11737,7 +11671,7 @@
       </c>
       <c r="G98" s="19"/>
       <c r="H98" s="19" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -11745,13 +11679,13 @@
         <v>137</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>536</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>288</v>
@@ -11761,7 +11695,7 @@
       </c>
       <c r="G99" s="19"/>
       <c r="H99" s="19" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -11769,13 +11703,13 @@
         <v>137</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>540</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="E100" s="19" t="s">
         <v>363</v>
@@ -11793,13 +11727,13 @@
         <v>137</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>541</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E101" s="19" t="s">
         <v>345</v>
@@ -11817,13 +11751,13 @@
         <v>137</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>541</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E102" s="19" t="s">
         <v>346</v>
@@ -11841,13 +11775,13 @@
         <v>137</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>541</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>347</v>
@@ -11865,13 +11799,13 @@
         <v>137</v>
       </c>
       <c r="B104" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>541</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E104" s="19" t="s">
         <v>348</v>
@@ -11889,13 +11823,13 @@
         <v>137</v>
       </c>
       <c r="B105" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>541</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E105" s="19" t="s">
         <v>349</v>
@@ -11913,13 +11847,13 @@
         <v>137</v>
       </c>
       <c r="B106" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C106" s="15" t="s">
         <v>541</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>350</v>
@@ -11937,13 +11871,13 @@
         <v>137</v>
       </c>
       <c r="B107" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>541</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>351</v>
@@ -11961,13 +11895,13 @@
         <v>137</v>
       </c>
       <c r="B108" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>541</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>352</v>
@@ -11985,13 +11919,13 @@
         <v>137</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>541</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>353</v>
@@ -12009,13 +11943,13 @@
         <v>137</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>541</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>354</v>
@@ -12033,13 +11967,13 @@
         <v>137</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>541</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>355</v>
@@ -12057,13 +11991,13 @@
         <v>137</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>541</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E112" s="19" t="s">
         <v>356</v>
@@ -12081,13 +12015,13 @@
         <v>137</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>541</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E113" s="19" t="s">
         <v>357</v>
@@ -12105,13 +12039,13 @@
         <v>137</v>
       </c>
       <c r="B114" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>541</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E114" s="19" t="s">
         <v>358</v>
@@ -12129,13 +12063,13 @@
         <v>137</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>541</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E115" s="19" t="s">
         <v>359</v>
@@ -12153,13 +12087,13 @@
         <v>137</v>
       </c>
       <c r="B116" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C116" s="15" t="s">
         <v>541</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E116" s="19" t="s">
         <v>360</v>
@@ -12177,13 +12111,13 @@
         <v>137</v>
       </c>
       <c r="B117" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>541</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E117" s="19" t="s">
         <v>361</v>
@@ -12201,13 +12135,13 @@
         <v>137</v>
       </c>
       <c r="B118" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C118" s="15" t="s">
         <v>541</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>362</v>
@@ -12225,13 +12159,13 @@
         <v>137</v>
       </c>
       <c r="B119" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>303</v>
@@ -12251,13 +12185,13 @@
         <v>137</v>
       </c>
       <c r="B120" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="E120" s="19" t="s">
         <v>304</v>
@@ -12277,13 +12211,13 @@
         <v>137</v>
       </c>
       <c r="B121" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>305</v>
@@ -12301,13 +12235,13 @@
         <v>137</v>
       </c>
       <c r="B122" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="E122" s="19" t="s">
         <v>306</v>
@@ -12325,13 +12259,13 @@
         <v>137</v>
       </c>
       <c r="B123" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="E123" s="19" t="s">
         <v>307</v>
@@ -12349,13 +12283,13 @@
         <v>137</v>
       </c>
       <c r="B124" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="E124" s="19" t="s">
         <v>308</v>
@@ -12373,25 +12307,25 @@
         <v>137</v>
       </c>
       <c r="B125" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="F125" s="43" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="G125" s="43" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="H125" s="43" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="50" x14ac:dyDescent="0.35">
@@ -12399,23 +12333,23 @@
         <v>137</v>
       </c>
       <c r="B126" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="F126" s="43" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="G126" s="43"/>
       <c r="H126" s="43" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -12423,23 +12357,23 @@
         <v>137</v>
       </c>
       <c r="B127" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="F127" s="43" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="G127" s="43"/>
       <c r="H127" s="43" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -12447,23 +12381,23 @@
         <v>137</v>
       </c>
       <c r="B128" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="F128" s="43" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="G128" s="43"/>
       <c r="H128" s="43" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -12471,25 +12405,25 @@
         <v>137</v>
       </c>
       <c r="B129" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="F129" s="43" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="G129" s="43" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="H129" s="43" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
@@ -12497,23 +12431,23 @@
         <v>137</v>
       </c>
       <c r="B130" s="36" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
       <c r="F130" s="43" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="G130" s="43"/>
       <c r="H130" s="43" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -12521,25 +12455,25 @@
         <v>137</v>
       </c>
       <c r="B131" s="36" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="F131" s="43" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="G131" s="43" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="H131" s="43" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -12547,25 +12481,25 @@
         <v>137</v>
       </c>
       <c r="B132" s="36" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="F132" s="43" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="G132" s="43" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="H132" s="43" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -12573,10 +12507,10 @@
         <v>137</v>
       </c>
       <c r="B133" s="69" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>927</v>
+        <v>910</v>
       </c>
       <c r="D133" s="51" t="s">
         <v>16</v>
@@ -12585,11 +12519,11 @@
         <v>16</v>
       </c>
       <c r="F133" s="55" t="s">
-        <v>968</v>
+        <v>949</v>
       </c>
       <c r="G133" s="51"/>
       <c r="H133" s="55" t="s">
-        <v>969</v>
+        <v>950</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -12597,10 +12531,10 @@
         <v>137</v>
       </c>
       <c r="B134" s="69" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>927</v>
+        <v>910</v>
       </c>
       <c r="D134" s="51" t="s">
         <v>16</v>
@@ -12609,11 +12543,11 @@
         <v>16</v>
       </c>
       <c r="F134" s="55" t="s">
-        <v>970</v>
+        <v>951</v>
       </c>
       <c r="G134" s="61"/>
       <c r="H134" s="55" t="s">
-        <v>971</v>
+        <v>952</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -12621,10 +12555,10 @@
         <v>137</v>
       </c>
       <c r="B135" s="69" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>927</v>
+        <v>910</v>
       </c>
       <c r="D135" s="51" t="s">
         <v>16</v>
@@ -12633,11 +12567,11 @@
         <v>16</v>
       </c>
       <c r="F135" s="55" t="s">
-        <v>972</v>
+        <v>953</v>
       </c>
       <c r="G135" s="61"/>
       <c r="H135" s="55" t="s">
-        <v>973</v>
+        <v>954</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -12645,10 +12579,10 @@
         <v>137</v>
       </c>
       <c r="B136" s="69" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>927</v>
+        <v>910</v>
       </c>
       <c r="D136" s="51" t="s">
         <v>16</v>
@@ -12657,11 +12591,11 @@
         <v>16</v>
       </c>
       <c r="F136" s="55" t="s">
-        <v>974</v>
+        <v>955</v>
       </c>
       <c r="G136" s="61"/>
       <c r="H136" s="1" t="s">
-        <v>975</v>
+        <v>956</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -12669,10 +12603,10 @@
         <v>137</v>
       </c>
       <c r="B137" s="69" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>925</v>
+        <v>908</v>
       </c>
       <c r="D137" s="51" t="s">
         <v>16</v>
@@ -12681,11 +12615,11 @@
         <v>16</v>
       </c>
       <c r="F137" s="43" t="s">
-        <v>976</v>
+        <v>957</v>
       </c>
       <c r="G137" s="61"/>
       <c r="H137" s="43" t="s">
-        <v>977</v>
+        <v>958</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -12693,10 +12627,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="69" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>925</v>
+        <v>908</v>
       </c>
       <c r="D138" s="51" t="s">
         <v>16</v>
@@ -12705,11 +12639,11 @@
         <v>16</v>
       </c>
       <c r="F138" s="43" t="s">
-        <v>978</v>
+        <v>959</v>
       </c>
       <c r="G138" s="61"/>
       <c r="H138" s="43" t="s">
-        <v>979</v>
+        <v>960</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
@@ -12717,10 +12651,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="69" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>925</v>
+        <v>908</v>
       </c>
       <c r="D139" s="51" t="s">
         <v>16</v>
@@ -12729,11 +12663,11 @@
         <v>16</v>
       </c>
       <c r="F139" s="43" t="s">
-        <v>980</v>
+        <v>961</v>
       </c>
       <c r="G139" s="43"/>
       <c r="H139" s="43" t="s">
-        <v>981</v>
+        <v>962</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -12741,23 +12675,23 @@
         <v>137</v>
       </c>
       <c r="B140" s="68" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D140" s="71" t="s">
-        <v>985</v>
+        <v>966</v>
       </c>
       <c r="E140" s="73" t="s">
-        <v>986</v>
+        <v>967</v>
       </c>
       <c r="F140" s="73" t="s">
-        <v>987</v>
+        <v>968</v>
       </c>
       <c r="G140" s="72"/>
       <c r="H140" s="72" t="s">
-        <v>988</v>
+        <v>969</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -12765,23 +12699,23 @@
         <v>137</v>
       </c>
       <c r="B141" s="68" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D141" s="71" t="s">
-        <v>985</v>
+        <v>966</v>
       </c>
       <c r="E141" s="61" t="s">
-        <v>989</v>
+        <v>970</v>
       </c>
       <c r="F141" s="61" t="s">
-        <v>990</v>
+        <v>971</v>
       </c>
       <c r="G141" s="61"/>
       <c r="H141" s="61" t="s">
-        <v>991</v>
+        <v>972</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -12789,25 +12723,25 @@
         <v>137</v>
       </c>
       <c r="B142" s="68" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D142" s="71" t="s">
-        <v>985</v>
+        <v>966</v>
       </c>
       <c r="E142" s="61" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
       <c r="F142" s="61" t="s">
-        <v>993</v>
+        <v>974</v>
       </c>
       <c r="G142" s="61" t="s">
-        <v>994</v>
+        <v>975</v>
       </c>
       <c r="H142" s="61" t="s">
-        <v>995</v>
+        <v>976</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
@@ -12815,23 +12749,23 @@
         <v>137</v>
       </c>
       <c r="B143" s="68" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D143" s="71" t="s">
-        <v>985</v>
+        <v>966</v>
       </c>
       <c r="E143" s="61" t="s">
-        <v>996</v>
+        <v>977</v>
       </c>
       <c r="F143" s="61" t="s">
-        <v>997</v>
+        <v>978</v>
       </c>
       <c r="G143" s="61"/>
       <c r="H143" s="61" t="s">
-        <v>998</v>
+        <v>979</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
@@ -12839,25 +12773,25 @@
         <v>137</v>
       </c>
       <c r="B144" s="68" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D144" s="71" t="s">
-        <v>985</v>
+        <v>966</v>
       </c>
       <c r="E144" s="61" t="s">
-        <v>999</v>
+        <v>980</v>
       </c>
       <c r="F144" s="61" t="s">
-        <v>1000</v>
+        <v>981</v>
       </c>
       <c r="G144" s="61" t="s">
-        <v>1001</v>
+        <v>982</v>
       </c>
       <c r="H144" s="61" t="s">
-        <v>1002</v>
+        <v>983</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
@@ -12865,25 +12799,25 @@
         <v>137</v>
       </c>
       <c r="B145" s="68" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D145" s="71" t="s">
+        <v>966</v>
+      </c>
+      <c r="E145" s="61" t="s">
+        <v>984</v>
+      </c>
+      <c r="F145" s="61" t="s">
         <v>985</v>
       </c>
-      <c r="E145" s="61" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F145" s="61" t="s">
-        <v>1004</v>
-      </c>
       <c r="G145" s="61" t="s">
-        <v>1005</v>
+        <v>986</v>
       </c>
       <c r="H145" s="61" t="s">
-        <v>1006</v>
+        <v>987</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -12891,23 +12825,23 @@
         <v>137</v>
       </c>
       <c r="B146" s="68" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D146" s="71" t="s">
-        <v>985</v>
+        <v>966</v>
       </c>
       <c r="E146" s="61" t="s">
-        <v>1007</v>
+        <v>988</v>
       </c>
       <c r="F146" s="61" t="s">
-        <v>1008</v>
+        <v>989</v>
       </c>
       <c r="G146" s="61"/>
       <c r="H146" s="61" t="s">
-        <v>1009</v>
+        <v>990</v>
       </c>
     </row>
   </sheetData>
@@ -12924,15 +12858,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -12941,7 +12866,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D9A8E34D4601248B4650C3759D604D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c234dc030e1d129322a3d56f76335218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de0c653c-2bd3-43b1-95fa-012c57f61cfe" xmlns:ns3="848a8810-16a6-4d79-96d3-e3dfb86099b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a56d1a68c4d05b5a1e5a3c0b3fb5b1a8" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -13163,25 +13088,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6744B0D-B7F9-4CA7-A5DC-23D611E8ED20}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -13189,7 +13105,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13207,4 +13123,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6744B0D-B7F9-4CA7-A5DC-23D611E8ED20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>